--- a/National/Report/Due Process/Data.xlsx
+++ b/National/Report/Due Process/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/mexico/MEX Research Team/FEDERAL AWARDS/ENPOL/Data/National/Report/Due Process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{B6C63C47-5817-5B49-9248-20AA2C0D53C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D29FD2A9-A906-E445-B48D-28A3B6C8A301}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{B6C63C47-5817-5B49-9248-20AA2C0D53C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A457A79-6873-9243-B516-8E8A5AEAD63E}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-3100" windowWidth="38400" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
   <si>
     <t>[{"type": "paragraph", "content": "El sistema de justicia penal acusatorio en México ya no es ninguna novedad. Han pasado 15 años desde que se publicara en el DOF el 18 de junio 2008 la trascendental reforma constitucional que introdujo a nuestro país el proceso penal acusatorio y oral; casi 10 años desde la publicación del Código Nacional de Procedimientos Penales. Todas las instituciones del entorno de seguridad y justicia han sufrido una o varias modificaciones y/o adecuaciones orgánicas y operativas. Policías, ministerios públicos o fiscales, defensores públicos, defensores privados, jueces penales, magistrados penales, ministros de la SCJN, supervisores de medidas cautelares, asesores jurídicos: todos y cada uno de los operadores han recibido horas y horas de capacitaciones sobre el nuevo sistema penal acusatorio, si no es que muchos pertenecen ya a aquellas generaciones -no tan jóvenes- que nunca conocieron ni ejercieron el sistema inquisitivo."}, 
 {"type": "paragraph", "content": " Cabe resaltar que a lo largo de estos 15 años, desde los ejes de planeación nacional, planeación sectorial y políticas de las instituciones de justicia penal, se ha hecho hincapié en ciertos temas transversales, principalmente el respeto a los derechos humanos y la perspectiva de género."}, 
-{"type": "paragraph", "content": "Es momento de hacer &lt;b&gt;un corte de caja respecto de la maduración del sistema de justicia penal acusatorio en México y analizar qué hemos hecho del sistema de justicia penal&lt;/b&gt; que miles de personas viven día a día desde hace por lo menos 7 años , desde una perspectiva de cumplimiento de los derechos del debido proceso y evaluando los efectos de las estrategias que han implementado los gobiernos para atender el fenómeno criminal en nuestro país."}, 
+{"type": "paragraph", "content": "Es momento de hacer &lt;b&gt;un corte de caja respecto de la maduración del sistema de justicia penal acusatorio en México y analizar qué hemos hecho del sistema de justicia penal&lt;/b&gt; que miles de personas viven día a día desde hace por lo menos 7 años , desde una perspectiva de cumplimiento de los derechos del debido proceso y evaluando los efectos de las estrategias que han implementado los gobiernos para atender el fenómeno criminal en nuestro país. "}, 
 {"type": "paragraph", "content": "En ese sentido, analizaremos la Encuesta Nacional de Población Privada de la Libertad 2021 (ENPOL), una encuesta realizada a las personas que se encuentran atravesado el proceso penal y se encuentran en Centros Penitenciarios siendo procesado o cumpliendo sentencia, ya que son aquellas que nos pueden dar un panorama real, cercano y completo del estado de la justicia penal en México. Existen muy pocos reportes que aborden la justicia penal desde un enfoque completamente centrado en las personas, y la ENPOL es uno de estos ya que no es un registro administrativo (instituciones reportando), sino son las respuestas directas de personas. "}, 
 {"type": "paragraph", "content": "Aspirar a que México logre concretar un sistema de justicia penal centrado en las personas, debe de ser el reto principal de los gobiernos actuales. Pero ¿qué significa la justicia centrada en las personas? Es un concepto que enfatiza el bienestar, los derechos y las necesidades de los individuos cuando enfrentan cualquier asunto legal (procesos y sistemas). "}, 
 {"type": "quote", "content": "La justicia centrada en la personas se centra en el bienestar, los derechos y las necesidades de los individuos cuando enfrentan cualquier asunto legal"}, 
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -735,15 +735,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
     <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
@@ -986,15 +977,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06980206-25CA-419D-8ADE-5E63E0BC3A34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9F18EFB-4A13-4E08-B7F9-999DD0A4ABD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1011,4 +1003,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06980206-25CA-419D-8ADE-5E63E0BC3A34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>